--- a/biology/Biologie cellulaire et moléculaire/Glande_rostrale/Glande_rostrale.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Glande_rostrale/Glande_rostrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glande rostrale des araignées est un petit organe sécréteur impair et médian qui doit son nom à sa situation dans le rostre, excroissance homologue d'une lèvre supérieure.
 </t>
@@ -511,10 +523,12 @@
           <t>Le rostre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rostre des Araignées est un organe impair, médian et symétrique représentant la lèvre supérieure (labre ou épistome). Il constitue la paroi dorsale du pharynx et la limite antérieure de la bouche. Cette dernière, étroite, est bordée latéralement par les lames maxillaires ou gnathocoxae et, en arrière, par le labium ou lèvre inférieure. Le rostre a généralement la forme d’un cône aplati, siégeant sur la face ventrale du prosoma, un peu en arrière des tiges chélicériennes qui tendent à le dissimuler avec les pièces buccales (Fig.1). Il a une consistance molle, est extensible et turgescent (Legendre, 1953, 1963)[1],[2].Son intérêt est lié à un développement particulier et surtout, à la présence d’un énigmatique organe rostral découvert par Wasmann (1846) chez une Mygale au milieu du XIXe siècle, paraissant exister chez toutes les Araignées mais de développement très variable.  
-Sa nature  et son rôle ont fait l'objet de plusieurs interprétations : organe glandulaire, glande salivaire à rôle digestif, glande différente des salivaires, organe sensoriel gustatif, organe statorécepteur [3]... Plus récemment, lui est attribué à nouveau une fonction digestive et Pulz (1987) l'incrimine dans la déperdition hydrique.   
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rostre des Araignées est un organe impair, médian et symétrique représentant la lèvre supérieure (labre ou épistome). Il constitue la paroi dorsale du pharynx et la limite antérieure de la bouche. Cette dernière, étroite, est bordée latéralement par les lames maxillaires ou gnathocoxae et, en arrière, par le labium ou lèvre inférieure. Le rostre a généralement la forme d’un cône aplati, siégeant sur la face ventrale du prosoma, un peu en arrière des tiges chélicériennes qui tendent à le dissimuler avec les pièces buccales (Fig.1). Il a une consistance molle, est extensible et turgescent (Legendre, 1953, 1963),.Son intérêt est lié à un développement particulier et surtout, à la présence d’un énigmatique organe rostral découvert par Wasmann (1846) chez une Mygale au milieu du XIXe siècle, paraissant exister chez toutes les Araignées mais de développement très variable.  
+Sa nature  et son rôle ont fait l'objet de plusieurs interprétations : organe glandulaire, glande salivaire à rôle digestif, glande différente des salivaires, organe sensoriel gustatif, organe statorécepteur ... Plus récemment, lui est attribué à nouveau une fonction digestive et Pulz (1987) l'incrimine dans la déperdition hydrique.   
 Sur le plan histologique, le rostre est formé par un revêtement tégumentaire à cuticule d'épaisseur inégale, et par une vaste lacune sanguine (sinus hémolymphatique) contenant  des muscles et l'organe rostral. La cuticule s'épaissit sur sa face postérieure en une plaque épipharyngée montrant un sillon axial et une microsculpture latérale complexe ; au niveau de la zone apicale, elle est garnie de longs poils spinulés tactiles pouvant jouer aussi un rôle de filtre, bien visibles au microscope électronique à balayage (M.E.T.) (Fig. 1 ). La lacune sanguine contient des hémocytes, des néphrocytes et parfois, du tissu réticulé endocrine. Elle englobe également plusieurs muscles striés (transversaux, latéro-pharyngés) (Fig. 2) et, chez les mâles de Linyphiidae, des glandes gnathocoxales dites salivaires sexuelles développées hors des gnathocoxae, tout autant de particularités visibles dans les seules coupes fines(C.H.). 
 L'organe siège dans la moitié antérieure du rostre, un peu au-dessus de sa pointe hérissée de poils. Il s'y présente comme une invagination tégumentaire (Fig. 2 à 5) en cul de sac ou en poche oblique contractant des rapports étroits avec la lacune sanguine, son contenu et les muscles transversaux. L'invagination peut être bifide, comme chez Argyroneta aquatica (Fig.3) ou même double dans le cas de Diguetia canities (Fig.14). 
 </t>
@@ -547,14 +561,132 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Structure histologique
-Déjà connue par une première exploration histologique succincte[3], elle a été approfondie ultérieurement dans deux autres espèces du même genre : Argyrodes argyrodes et A.canariensis[4]. Comme chez la plupart des autres Araignées, leur invagination tégumentaire rostrale comporte deux parties : le couloir et une chambre unique (Fig. 2, 4), décrits par Legendre (1953)[1] chez Tegenaria sous les noms respectifs de canal impair et partie cellulaire de l’organe. La chambre et le couloir sont tous deux  pourvus d'un épithélium et d'une cuticule en continuité avec ceux du tégument rostral (Fig. 2, 4).
-Couloir
-Chez Argyrodes argyrodes, le couloir est étroit, aplati de haut en bas et d'avant en arrière, légèrement ascendant et bordé par deux lèvres, l'une supérieure (languette de Legendre, 1953)[1], saillant en auvent trapézoïdal visible au M.E.B (Fig. 1), et l'autre, inférieure, mousse et assez peu marquée... 
-Ultrastucture
-L’aspect au microscope électronique à transmission (M.E.T.) est celui d’un épithélium épidermique sécréteur que surmonte un revêtement cuticulaire modifié, tous deux séparés par un espace sous-cuticulaire ou extracellulaire présentant des différences nettes entre la chambre et le couloir.
-Épithélium
-Il est  formé par des cellules étroites et allongées, reposant sur une lamina, séparées de la cuticule sus-jacente par un espace extracellulaire (sous-cuticulaire), à pôles apicaux garnis de microvillosités et à noyaux ovalaires basaux.
+          <t>Structure histologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Déjà connue par une première exploration histologique succincte, elle a été approfondie ultérieurement dans deux autres espèces du même genre : Argyrodes argyrodes et A.canariensis. Comme chez la plupart des autres Araignées, leur invagination tégumentaire rostrale comporte deux parties : le couloir et une chambre unique (Fig. 2, 4), décrits par Legendre (1953) chez Tegenaria sous les noms respectifs de canal impair et partie cellulaire de l’organe. La chambre et le couloir sont tous deux  pourvus d'un épithélium et d'une cuticule en continuité avec ceux du tégument rostral (Fig. 2, 4).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>L’organe rostral.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Structure histologique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Couloir</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez Argyrodes argyrodes, le couloir est étroit, aplati de haut en bas et d'avant en arrière, légèrement ascendant et bordé par deux lèvres, l'une supérieure (languette de Legendre, 1953), saillant en auvent trapézoïdal visible au M.E.B (Fig. 1), et l'autre, inférieure, mousse et assez peu marquée... 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L’organe rostral.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ultrastucture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aspect au microscope électronique à transmission (M.E.T.) est celui d’un épithélium épidermique sécréteur que surmonte un revêtement cuticulaire modifié, tous deux séparés par un espace sous-cuticulaire ou extracellulaire présentant des différences nettes entre la chambre et le couloir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L’organe rostral.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ultrastucture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Épithélium</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est  formé par des cellules étroites et allongées, reposant sur une lamina, séparées de la cuticule sus-jacente par un espace extracellulaire (sous-cuticulaire), à pôles apicaux garnis de microvillosités et à noyaux ovalaires basaux.
 Épithélium de la chambre
 Ses cellules sont toutes semblables, présentent des caractères d’adénocytes mais sont dépourvues de canalicules excréteurs comme celles des glandes péribuccales. De ce fait, l’épithélium  ne comporte pas d’unités glandulaires structurées contrairement à la glande clypéale ou acronale. L’adénocyte est en forme de pyramide irrégulière d’autant plus longue et inclinée qu’elle est plus proche du couloir.
 Son pôle basal est découpé par des invaginations du plasmalemme en compartiments petits, très nombreux, enchevêtrés et rappelant des prolongements podocytaires. La lame basale sous-jacente est finement granuleuse, sépare les prolongements de l’espace hémolymphatique voisin, et pénètre dans les invaginations membranaires sans passer en pont au-dessus d’elles. 
@@ -568,8 +700,47 @@
 Le pôle apical est garni de microvilli courtes, irrégulières et enchevêtrées, présente aussi une endocytose active donnant naissance à des vésicules recouvertes et ne s’invagine pas dans le cytoplasme sous-jacent. 
 Le noyau est basal, ovalaire et renferme de gros blocs marginaux d’hétérochromatine. Les organites subcellulaires sont des vésicules recouvertes, de nombreux ribosomes libres, du réticulum, quelques mitochondries allongées, à crêtes parallèles et surtout, des grains pigmentaires intensément osmiophiles, sphériques ou devenant polyédriques quand ils sont nombreux et rapprochés, se disposant alors en files presque parallèles à la cuticule.
 Dans l’auvent, l’épithélium du couloir cèdent la place à des cellules épidermiques s’engrenant par leurs faces très sinueuses. Leur noyau irrégulier contient une chromatine abondante ; leur cytoplasme sombre renferme des ribosomes libres, de petites mitochondries et des grains de pigment, surtout nombreux chez Argyrodes argyrodes.
-Cuticule
-Elle est formée par une épicuticule et une endocuticule ne présentant pas une ultrastructure uniforme dans la chambre et le couloir et est séparée des cellules épithéliales sous-jacente par l’espace sous-cuticulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L’organe rostral.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ultrastucture</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cuticule</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est formée par une épicuticule et une endocuticule ne présentant pas une ultrastructure uniforme dans la chambre et le couloir et est séparée des cellules épithéliales sous-jacente par l’espace sous-cuticulaire.
 Chambre
 La cuticule a une épaisseur irrégulière et forme des épaississements pouvant correspondre aux mamelons des coupes histologiques.
 L’espace sous-cuticulaire qui la sépare des pôles apicaux des adénocytes est vaste, irrégulier et labyrinthique (Fig. 11). Il s’étend d’une part jusqu’aux desmosomes fermant les espaces interadénocytaires, entoure les languettes apicales, les microvillosités et contient un matériel finement grenu, avec des condensations allongées, filamenteuses.
@@ -582,40 +753,116 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Glande_rostrale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glande_rostrale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">Commentaires </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Anatomie
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Anatomie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L’organe rostral présente indiscutablement l’ultrastructure d’une glande : les grains de sécrétion  des adénocytes y traduisent sans équivoque une activité glandulaire. Il ne s’agit donc pas d’une formation sensorielle (absence de neurones et de cils) et l’hypothèse statoréceptrice, d'abord envisagée d'après la seule histologie, est abandonnée, peut-être au profit de l’appareil stridulatoire (sensilles du pédicule)
 L’organe rostral est une glande épidermique ou tégumentaire anatomiquement délimitée, avec une situation et une forme qui lui sont propres, constituée par des cellules épithéliales identiques les unes aux autres, sans canaux excréteurs, directement recouvertes par la cuticule que leur sécrétion doit traverser au niveau des zones criblées. Il peut donc être rattaché à la classe 1 des glandes tégumentaires que Noirot et Quennedey (1974) ont définie chez les Insectes.
 Il s’apparente aux glandes péri-buccales de la lèvre inférieure et des lames maxillaires dont les  adénocytes possèdent aussi un réticulum lisse abondant. Toutefois, ces cellules ne sont pas aussi riches en mitochondries, en microvillosités et élaborent une matériel lamellaire d’aspect différent.
-Ontogénie
-Le dédoublement  évident de la glande chez Diguetia canities (Fig.14)[5] et son aspect bifide chezTegenaria (Legendre, 1953)[1], confirme qu'au  point de vue ontogénique, le rostre  résulte bien, selon Legendre (1979)[6], de la fusion de deux ébauches , cette parité d'origine se traduisant d'ailleurs chez la prélarve   par une division apicale et, chez l'adulte d'autres genres, tels qu' Argyroneta, (Fig. 3) par la bifidité de l' organe rostral .  
- Rôle
-Sur le plan fonctionnel, il semblerait que le produit de sécrétion  ne puisse être libéré en masse dans la cavité de la chambre, les canalicules épicuticulaires étant trop étroits et un appareil constricteur d’expulsion faisant défaut,  mais y soit plutôt émis passivement, en petite quantité et de manière continue. Il s’évaporerait sans laisser de trace décelable sur les coupes microscopiques et serait ainsi émis à l’extérieur par le couloir et l’orifice de l’organe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commentaires </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ontogénie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dédoublement  évident de la glande chez Diguetia canities (Fig.14) et son aspect bifide chezTegenaria (Legendre, 1953), confirme qu'au  point de vue ontogénique, le rostre  résulte bien, selon Legendre (1979), de la fusion de deux ébauches , cette parité d'origine se traduisant d'ailleurs chez la prélarve   par une division apicale et, chez l'adulte d'autres genres, tels qu' Argyroneta, (Fig. 3) par la bifidité de l' organe rostral .  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glande_rostrale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commentaires </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rôle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le plan fonctionnel, il semblerait que le produit de sécrétion  ne puisse être libéré en masse dans la cavité de la chambre, les canalicules épicuticulaires étant trop étroits et un appareil constricteur d’expulsion faisant défaut,  mais y soit plutôt émis passivement, en petite quantité et de manière continue. Il s’évaporerait sans laisser de trace décelable sur les coupes microscopiques et serait ainsi émis à l’extérieur par le couloir et l’orifice de l’organe.
 L’hypothèse d’une sécrétion volatile, peut-être sémio-chimique et odoriférante, s’accorde mieux avec la situation particulière et l’ultrastructure de la glande que les concepts d’un liquide digestif ou d’un produit lubrifiant plus adaptés aux glandes gnathocoxales salivaires, aux glandes péribuccales et aux diverticules chylentériques.                
 </t>
         </is>
